--- a/data_ohlc.xlsx
+++ b/data_ohlc.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G762"/>
+  <dimension ref="A1:G848"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20982,6 +20982,2328 @@
         <v>11776286</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2020-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>44.81</v>
+      </c>
+      <c r="D763" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="E763" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="F763" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="G763" t="n">
+        <v>32079891</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>2020-04-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>42.85</v>
+      </c>
+      <c r="D764" t="n">
+        <v>44.445</v>
+      </c>
+      <c r="E764" t="n">
+        <v>41.9693</v>
+      </c>
+      <c r="F764" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="G764" t="n">
+        <v>27717042</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>2020-04-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="D765" t="n">
+        <v>49.22</v>
+      </c>
+      <c r="E765" t="n">
+        <v>46.365</v>
+      </c>
+      <c r="F765" t="n">
+        <v>47.42</v>
+      </c>
+      <c r="G765" t="n">
+        <v>41235838</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>2020-04-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D766" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="E766" t="n">
+        <v>45.27</v>
+      </c>
+      <c r="F766" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="G766" t="n">
+        <v>25314657</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>2020-04-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>47.66</v>
+      </c>
+      <c r="D767" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="E767" t="n">
+        <v>43.525</v>
+      </c>
+      <c r="F767" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="G767" t="n">
+        <v>37878577</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>2020-04-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="D768" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="E768" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="F768" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="G768" t="n">
+        <v>29675070</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>2020-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>42.71</v>
+      </c>
+      <c r="D769" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="E769" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F769" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="G769" t="n">
+        <v>35366848</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>2020-04-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="D770" t="n">
+        <v>45.62</v>
+      </c>
+      <c r="E770" t="n">
+        <v>42.65</v>
+      </c>
+      <c r="F770" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="G770" t="n">
+        <v>38121722</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2020-04-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>43.395</v>
+      </c>
+      <c r="D771" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="E771" t="n">
+        <v>42.885</v>
+      </c>
+      <c r="F771" t="n">
+        <v>44.01</v>
+      </c>
+      <c r="G771" t="n">
+        <v>30694501</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>2020-04-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>42.35</v>
+      </c>
+      <c r="D772" t="n">
+        <v>43.11</v>
+      </c>
+      <c r="E772" t="n">
+        <v>41.07</v>
+      </c>
+      <c r="F772" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="G772" t="n">
+        <v>34379404</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>2020-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>43</v>
+      </c>
+      <c r="D773" t="n">
+        <v>43.12</v>
+      </c>
+      <c r="E773" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="F773" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="G773" t="n">
+        <v>19489910</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>2020-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>42.65</v>
+      </c>
+      <c r="D774" t="n">
+        <v>43.74</v>
+      </c>
+      <c r="E774" t="n">
+        <v>42.26</v>
+      </c>
+      <c r="F774" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="G774" t="n">
+        <v>22664344</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2020-04-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>43</v>
+      </c>
+      <c r="D775" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="E775" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F775" t="n">
+        <v>43.11</v>
+      </c>
+      <c r="G775" t="n">
+        <v>24816436</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>2020-04-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>44.17</v>
+      </c>
+      <c r="D776" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="E776" t="n">
+        <v>43.73</v>
+      </c>
+      <c r="F776" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="G776" t="n">
+        <v>28321221</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>2020-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="D777" t="n">
+        <v>49.59</v>
+      </c>
+      <c r="E777" t="n">
+        <v>46.93</v>
+      </c>
+      <c r="F777" t="n">
+        <v>47.21</v>
+      </c>
+      <c r="G777" t="n">
+        <v>27524503</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>2020-04-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D778" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="E778" t="n">
+        <v>48.455</v>
+      </c>
+      <c r="F778" t="n">
+        <v>50.26</v>
+      </c>
+      <c r="G778" t="n">
+        <v>28469108</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>2020-04-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>49.07</v>
+      </c>
+      <c r="D779" t="n">
+        <v>49.77</v>
+      </c>
+      <c r="E779" t="n">
+        <v>48.04</v>
+      </c>
+      <c r="F779" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="G779" t="n">
+        <v>23668187</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>2020-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>46.31</v>
+      </c>
+      <c r="D780" t="n">
+        <v>46.47</v>
+      </c>
+      <c r="E780" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="F780" t="n">
+        <v>45.52</v>
+      </c>
+      <c r="G780" t="n">
+        <v>26398171</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>2020-05-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>45.17</v>
+      </c>
+      <c r="D781" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="E781" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="F781" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="G781" t="n">
+        <v>22553292</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>2020-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D782" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="E782" t="n">
+        <v>43.92</v>
+      </c>
+      <c r="F782" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="G782" t="n">
+        <v>24473973</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>2020-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>44.49</v>
+      </c>
+      <c r="D783" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="E783" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="F783" t="n">
+        <v>42.94</v>
+      </c>
+      <c r="G783" t="n">
+        <v>21445914</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>2020-05-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="D784" t="n">
+        <v>45.16</v>
+      </c>
+      <c r="E784" t="n">
+        <v>43.4375</v>
+      </c>
+      <c r="F784" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="G784" t="n">
+        <v>24435469</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>2020-05-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="D785" t="n">
+        <v>46.42</v>
+      </c>
+      <c r="E785" t="n">
+        <v>45.26</v>
+      </c>
+      <c r="F785" t="n">
+        <v>46.32</v>
+      </c>
+      <c r="G785" t="n">
+        <v>20991555</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>2020-05-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="D786" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="E786" t="n">
+        <v>43.81</v>
+      </c>
+      <c r="F786" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="G786" t="n">
+        <v>30523920</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>2020-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="D787" t="n">
+        <v>44.69</v>
+      </c>
+      <c r="E787" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="F787" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="G787" t="n">
+        <v>28106371</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>2020-05-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>42</v>
+      </c>
+      <c r="D788" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E788" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="F788" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="G788" t="n">
+        <v>31506577</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>2020-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="D789" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="E789" t="n">
+        <v>38.76</v>
+      </c>
+      <c r="F789" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="G789" t="n">
+        <v>37972837</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>2020-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>41.58</v>
+      </c>
+      <c r="D790" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="E790" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F790" t="n">
+        <v>41.92</v>
+      </c>
+      <c r="G790" t="n">
+        <v>24914556</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>2020-05-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="D791" t="n">
+        <v>45.91</v>
+      </c>
+      <c r="E791" t="n">
+        <v>43.49</v>
+      </c>
+      <c r="F791" t="n">
+        <v>45.6685</v>
+      </c>
+      <c r="G791" t="n">
+        <v>35974388</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>2020-05-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>45.27</v>
+      </c>
+      <c r="D792" t="n">
+        <v>45.79</v>
+      </c>
+      <c r="E792" t="n">
+        <v>44.21</v>
+      </c>
+      <c r="F792" t="n">
+        <v>44.425</v>
+      </c>
+      <c r="G792" t="n">
+        <v>23792540</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>2020-05-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>45.57</v>
+      </c>
+      <c r="D793" t="n">
+        <v>46.28</v>
+      </c>
+      <c r="E793" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="F793" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="G793" t="n">
+        <v>21754063</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>2020-05-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>45.17</v>
+      </c>
+      <c r="D794" t="n">
+        <v>45.79</v>
+      </c>
+      <c r="E794" t="n">
+        <v>44.782</v>
+      </c>
+      <c r="F794" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="G794" t="n">
+        <v>17895096</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>2020-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>44.77</v>
+      </c>
+      <c r="D795" t="n">
+        <v>45.045</v>
+      </c>
+      <c r="E795" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="F795" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="G795" t="n">
+        <v>21647278</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>2020-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D796" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E796" t="n">
+        <v>45.98</v>
+      </c>
+      <c r="F796" t="n">
+        <v>48.17</v>
+      </c>
+      <c r="G796" t="n">
+        <v>31836784</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>2020-05-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>51.68</v>
+      </c>
+      <c r="D797" t="n">
+        <v>52.39</v>
+      </c>
+      <c r="E797" t="n">
+        <v>49.86</v>
+      </c>
+      <c r="F797" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="G797" t="n">
+        <v>40842988</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>2020-05-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="C798" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="D798" t="n">
+        <v>53.01</v>
+      </c>
+      <c r="E798" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="F798" t="n">
+        <v>49.135</v>
+      </c>
+      <c r="G798" t="n">
+        <v>35937247</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>2020-05-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="D799" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="E799" t="n">
+        <v>47.56</v>
+      </c>
+      <c r="F799" t="n">
+        <v>47.93</v>
+      </c>
+      <c r="G799" t="n">
+        <v>28770371</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>2020-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>48.14</v>
+      </c>
+      <c r="D800" t="n">
+        <v>49.68</v>
+      </c>
+      <c r="E800" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="F800" t="n">
+        <v>49.46</v>
+      </c>
+      <c r="G800" t="n">
+        <v>21227878</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>2020-06-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="D801" t="n">
+        <v>51.29</v>
+      </c>
+      <c r="E801" t="n">
+        <v>50.16</v>
+      </c>
+      <c r="F801" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="G801" t="n">
+        <v>25542858</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>2020-06-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="D802" t="n">
+        <v>53.76</v>
+      </c>
+      <c r="E802" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="F802" t="n">
+        <v>53.345</v>
+      </c>
+      <c r="G802" t="n">
+        <v>28881338</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>2020-06-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="D803" t="n">
+        <v>55.69</v>
+      </c>
+      <c r="E803" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="F803" t="n">
+        <v>55.66</v>
+      </c>
+      <c r="G803" t="n">
+        <v>31447411</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>2020-06-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>61.57</v>
+      </c>
+      <c r="D804" t="n">
+        <v>62.47</v>
+      </c>
+      <c r="E804" t="n">
+        <v>58.34</v>
+      </c>
+      <c r="F804" t="n">
+        <v>58.915</v>
+      </c>
+      <c r="G804" t="n">
+        <v>41395402</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>2020-06-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>60.66</v>
+      </c>
+      <c r="D805" t="n">
+        <v>61.33</v>
+      </c>
+      <c r="E805" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="F805" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="G805" t="n">
+        <v>28265269</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>2020-06-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>59</v>
+      </c>
+      <c r="D806" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="E806" t="n">
+        <v>57.65</v>
+      </c>
+      <c r="F806" t="n">
+        <v>59.5815</v>
+      </c>
+      <c r="G806" t="n">
+        <v>28786501</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>2020-06-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D807" t="n">
+        <v>59.14</v>
+      </c>
+      <c r="E807" t="n">
+        <v>55.86</v>
+      </c>
+      <c r="F807" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="G807" t="n">
+        <v>35024720</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>2020-06-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="D808" t="n">
+        <v>53.515</v>
+      </c>
+      <c r="E808" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F808" t="n">
+        <v>48.32</v>
+      </c>
+      <c r="G808" t="n">
+        <v>57588986</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>2020-06-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="D809" t="n">
+        <v>51.78</v>
+      </c>
+      <c r="E809" t="n">
+        <v>50.1006</v>
+      </c>
+      <c r="F809" t="n">
+        <v>50.105</v>
+      </c>
+      <c r="G809" t="n">
+        <v>13764311</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>2020-06-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="D810" t="n">
+        <v>53</v>
+      </c>
+      <c r="E810" t="n">
+        <v>49.74</v>
+      </c>
+      <c r="F810" t="n">
+        <v>52.985</v>
+      </c>
+      <c r="G810" t="n">
+        <v>34502397</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>2020-06-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="D811" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="E811" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="F811" t="n">
+        <v>54.49</v>
+      </c>
+      <c r="G811" t="n">
+        <v>34395693</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>2020-06-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="C812" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D812" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E812" t="n">
+        <v>52.88</v>
+      </c>
+      <c r="F812" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="G812" t="n">
+        <v>20996087</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>2020-06-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>52.67</v>
+      </c>
+      <c r="D813" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="E813" t="n">
+        <v>52.03</v>
+      </c>
+      <c r="F813" t="n">
+        <v>53.01</v>
+      </c>
+      <c r="G813" t="n">
+        <v>19922713</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>2020-06-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="D814" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="E814" t="n">
+        <v>51.56</v>
+      </c>
+      <c r="F814" t="n">
+        <v>52.58</v>
+      </c>
+      <c r="G814" t="n">
+        <v>32772797</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>2020-06-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="C815" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="D815" t="n">
+        <v>52.57</v>
+      </c>
+      <c r="E815" t="n">
+        <v>51.52</v>
+      </c>
+      <c r="F815" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="G815" t="n">
+        <v>17796082</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>2020-06-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="C816" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="D816" t="n">
+        <v>53.73</v>
+      </c>
+      <c r="E816" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F816" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="G816" t="n">
+        <v>19343138</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>2020-06-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="D817" t="n">
+        <v>51.84</v>
+      </c>
+      <c r="E817" t="n">
+        <v>50.1643</v>
+      </c>
+      <c r="F817" t="n">
+        <v>50.83</v>
+      </c>
+      <c r="G817" t="n">
+        <v>24345141</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>2020-06-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D818" t="n">
+        <v>52.79</v>
+      </c>
+      <c r="E818" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="F818" t="n">
+        <v>52.695</v>
+      </c>
+      <c r="G818" t="n">
+        <v>23948185</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>2020-06-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>52.34</v>
+      </c>
+      <c r="D819" t="n">
+        <v>52.34</v>
+      </c>
+      <c r="E819" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="F819" t="n">
+        <v>49.585</v>
+      </c>
+      <c r="G819" t="n">
+        <v>27633064</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>2020-06-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>50.28</v>
+      </c>
+      <c r="D820" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="E820" t="n">
+        <v>49.61</v>
+      </c>
+      <c r="F820" t="n">
+        <v>50.31</v>
+      </c>
+      <c r="G820" t="n">
+        <v>21246552</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>2020-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>49.81</v>
+      </c>
+      <c r="D821" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="E821" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="F821" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="G821" t="n">
+        <v>20248600</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>2020-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>51.76</v>
+      </c>
+      <c r="D822" t="n">
+        <v>51.995</v>
+      </c>
+      <c r="E822" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="F822" t="n">
+        <v>50.35</v>
+      </c>
+      <c r="G822" t="n">
+        <v>17603150</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>2020-07-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="D823" t="n">
+        <v>52.455</v>
+      </c>
+      <c r="E823" t="n">
+        <v>50.2843</v>
+      </c>
+      <c r="F823" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="G823" t="n">
+        <v>21082670</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>2020-07-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>51.87</v>
+      </c>
+      <c r="D824" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="E824" t="n">
+        <v>51.185</v>
+      </c>
+      <c r="F824" t="n">
+        <v>51.97</v>
+      </c>
+      <c r="G824" t="n">
+        <v>19678458</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>2020-07-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="D825" t="n">
+        <v>51.355</v>
+      </c>
+      <c r="E825" t="n">
+        <v>50.09</v>
+      </c>
+      <c r="F825" t="n">
+        <v>50.33</v>
+      </c>
+      <c r="G825" t="n">
+        <v>19867633</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>2020-07-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D826" t="n">
+        <v>51.07</v>
+      </c>
+      <c r="E826" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="F826" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="G826" t="n">
+        <v>17859168</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>2020-07-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="D827" t="n">
+        <v>51.08</v>
+      </c>
+      <c r="E827" t="n">
+        <v>49.03</v>
+      </c>
+      <c r="F827" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="G827" t="n">
+        <v>23415709</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>2020-07-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="D828" t="n">
+        <v>52.69</v>
+      </c>
+      <c r="E828" t="n">
+        <v>49.45</v>
+      </c>
+      <c r="F828" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="G828" t="n">
+        <v>26622429</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>2020-07-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="D829" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="E829" t="n">
+        <v>51.86</v>
+      </c>
+      <c r="F829" t="n">
+        <v>52.24</v>
+      </c>
+      <c r="G829" t="n">
+        <v>23432443</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>2020-07-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>51.29</v>
+      </c>
+      <c r="D830" t="n">
+        <v>52.0809</v>
+      </c>
+      <c r="E830" t="n">
+        <v>50.01</v>
+      </c>
+      <c r="F830" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="G830" t="n">
+        <v>32264468</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>2020-07-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="D831" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="E831" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="F831" t="n">
+        <v>51.84</v>
+      </c>
+      <c r="G831" t="n">
+        <v>25290743</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>2020-07-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="D832" t="n">
+        <v>52.455</v>
+      </c>
+      <c r="E832" t="n">
+        <v>50.935</v>
+      </c>
+      <c r="F832" t="n">
+        <v>51.55</v>
+      </c>
+      <c r="G832" t="n">
+        <v>17417917</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>2020-07-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>51.22</v>
+      </c>
+      <c r="D833" t="n">
+        <v>51.48</v>
+      </c>
+      <c r="E833" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F833" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="G833" t="n">
+        <v>19025723</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>2020-07-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="D834" t="n">
+        <v>50.58</v>
+      </c>
+      <c r="E834" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="F834" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="G834" t="n">
+        <v>18485255</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>2020-07-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="D835" t="n">
+        <v>51.82</v>
+      </c>
+      <c r="E835" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="F835" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="G835" t="n">
+        <v>19411045</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>2020-07-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>51.54</v>
+      </c>
+      <c r="D836" t="n">
+        <v>52.28</v>
+      </c>
+      <c r="E836" t="n">
+        <v>51.145</v>
+      </c>
+      <c r="F836" t="n">
+        <v>51.66</v>
+      </c>
+      <c r="G836" t="n">
+        <v>17263465</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>2020-07-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="D837" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="E837" t="n">
+        <v>51.13</v>
+      </c>
+      <c r="F837" t="n">
+        <v>52.08</v>
+      </c>
+      <c r="G837" t="n">
+        <v>11171752</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>2020-07-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="D838" t="n">
+        <v>52.48</v>
+      </c>
+      <c r="E838" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F838" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="G838" t="n">
+        <v>15401884</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>2020-07-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>51.46</v>
+      </c>
+      <c r="D839" t="n">
+        <v>51.46</v>
+      </c>
+      <c r="E839" t="n">
+        <v>50.605</v>
+      </c>
+      <c r="F839" t="n">
+        <v>51.29</v>
+      </c>
+      <c r="G839" t="n">
+        <v>13334275</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>2020-07-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="C840" t="n">
+        <v>51.02</v>
+      </c>
+      <c r="D840" t="n">
+        <v>51.66</v>
+      </c>
+      <c r="E840" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="F840" t="n">
+        <v>51.26</v>
+      </c>
+      <c r="G840" t="n">
+        <v>20238043</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>2020-07-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>51.17</v>
+      </c>
+      <c r="D841" t="n">
+        <v>52.59</v>
+      </c>
+      <c r="E841" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="F841" t="n">
+        <v>52.51</v>
+      </c>
+      <c r="G841" t="n">
+        <v>32404816</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>2020-07-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>51.11</v>
+      </c>
+      <c r="D842" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E842" t="n">
+        <v>49.86</v>
+      </c>
+      <c r="F842" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="G842" t="n">
+        <v>46413577</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>2020-07-31 00:00:00</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>50.26</v>
+      </c>
+      <c r="D843" t="n">
+        <v>50.31</v>
+      </c>
+      <c r="E843" t="n">
+        <v>49.3678</v>
+      </c>
+      <c r="F843" t="n">
+        <v>50.05</v>
+      </c>
+      <c r="G843" t="n">
+        <v>35970593</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>2020-08-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="D844" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="E844" t="n">
+        <v>49.69</v>
+      </c>
+      <c r="F844" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="G844" t="n">
+        <v>23526059</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>2020-08-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="D845" t="n">
+        <v>50.32</v>
+      </c>
+      <c r="E845" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="F845" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="G845" t="n">
+        <v>31396233</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>2020-08-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D846" t="n">
+        <v>51.31</v>
+      </c>
+      <c r="E846" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="F846" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="G846" t="n">
+        <v>29068037</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>2020-08-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="D847" t="n">
+        <v>51.29</v>
+      </c>
+      <c r="E847" t="n">
+        <v>50.58</v>
+      </c>
+      <c r="F847" t="n">
+        <v>50.905</v>
+      </c>
+      <c r="G847" t="n">
+        <v>20610948</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>2020-08-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>50.52</v>
+      </c>
+      <c r="D848" t="n">
+        <v>52.23</v>
+      </c>
+      <c r="E848" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="F848" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="G848" t="n">
+        <v>37476655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
